--- a/results/[3_low_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1812.803126660054</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4622.8361210227</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2428.77771379855</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10371.325902912</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.534049630441</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>2420.79197950242</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1358.894601537055</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3025.951641828148</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12889.56086624117</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19330.19497335958</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>2773.846293838942</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>2340.403967713372</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1770.119671271456</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>4686.043832468928</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19385.71650516988</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28665.83942972087</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>5043.434707998173</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>3834.906109154087</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>247.0922343210123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>775.978146433487</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>204.0473635070248</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10382.70150146177</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13033.36705771959</v>
+        <v>4357.823875228254</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122096.3539433945</v>
+        <v>288299.5429482079</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661911</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>213875.8560912</v>
+        <v>159992.7815958817</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>154206.5935714604</v>
+        <v>487002.2979492</v>
       </c>
       <c r="M2" t="n">
-        <v>63186.0532691424</v>
+        <v>112861.3269883</v>
       </c>
       <c r="N2" t="n">
-        <v>58770.87151695162</v>
+        <v>71709.53159849434</v>
       </c>
       <c r="O2" t="n">
-        <v>36121.07083293838</v>
+        <v>67449.74959589262</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49973.21910273494</v>
+        <v>4128.642372630347</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>37397.57803605858</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>282152.0969094842</v>
+        <v>157057.2103891942</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>163546.7718255915</v>
+        <v>208211.38052173</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>726640.3779586911</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>188564.0679191822</v>
+        <v>61591.76966197747</v>
       </c>
       <c r="N2" t="n">
-        <v>125168.4969405391</v>
+        <v>18360.80710027935</v>
       </c>
       <c r="O2" t="n">
-        <v>51870.14181473463</v>
+        <v>10996.14522950405</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52591.23870034764</v>
+        <v>20927.37153491941</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15929.09817745369</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>593418.6987067544</v>
+        <v>117187.0091721428</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>672140.2467937882</v>
+        <v>167438.2047553067</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>456892.065111933</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>374547.722434013</v>
+        <v>64323.74191122008</v>
       </c>
       <c r="N2" t="n">
-        <v>99624.36038798961</v>
+        <v>43698.25102198371</v>
       </c>
       <c r="O2" t="n">
-        <v>171391.7952270746</v>
+        <v>50960.0028627053</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4357.823875228254</v>
+        <v>3481.11133040007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>288299.5429482079</v>
+        <v>288784.0257356465</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>159992.7815958817</v>
+        <v>157511.7087451186</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>487002.2979492</v>
+        <v>489912.4167596999</v>
       </c>
       <c r="M2" t="n">
-        <v>112861.3269883</v>
+        <v>112998.9730188</v>
       </c>
       <c r="N2" t="n">
-        <v>71709.53159849434</v>
+        <v>72668.9505637426</v>
       </c>
       <c r="O2" t="n">
-        <v>67449.74959589262</v>
+        <v>69732.90075344281</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4128.642372630347</v>
+        <v>2209.181339077783</v>
       </c>
       <c r="B2" t="n">
-        <v>37397.57803605858</v>
+        <v>57019.8100017786</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>157057.2103891942</v>
+        <v>261026.8276704075</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>208211.38052173</v>
+        <v>283850.8070745453</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>100844.7993015671</v>
       </c>
       <c r="M2" t="n">
-        <v>61591.76966197747</v>
+        <v>106564.8742708</v>
       </c>
       <c r="N2" t="n">
-        <v>18360.80710027935</v>
+        <v>33073.85645417624</v>
       </c>
       <c r="O2" t="n">
-        <v>10996.14522950405</v>
+        <v>22743.17640421139</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20927.37153491941</v>
+        <v>23566.89669566984</v>
       </c>
       <c r="B2" t="n">
-        <v>15929.09817745369</v>
+        <v>12464.79578491448</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>117187.0091721428</v>
+        <v>109707.1026912166</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>167438.2047553067</v>
+        <v>158247.5988221456</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>64323.74191122008</v>
+        <v>62871.57057687733</v>
       </c>
       <c r="N2" t="n">
-        <v>43698.25102198371</v>
+        <v>48867.45187110166</v>
       </c>
       <c r="O2" t="n">
-        <v>50960.0028627053</v>
+        <v>59761.20443857631</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10382.70150146177</v>
+        <v>53161.39655440325</v>
       </c>
       <c r="B2" t="n">
-        <v>13033.36705771959</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>483549.0449340604</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122096.3539433945</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75423.10400722788</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661911</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>213875.8560912</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>154206.5935714604</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>63186.0532691424</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58770.87151695162</v>
+        <v>23145.29432836288</v>
       </c>
       <c r="O2" t="n">
-        <v>36121.07083293838</v>
+        <v>19940.13531829328</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49973.21910273494</v>
+        <v>65597.46000838834</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1406733.146083036</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>282152.0969094842</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>74436.07324219157</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48530.37432129928</v>
       </c>
       <c r="I2" t="n">
-        <v>163546.7718255915</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>726640.3779586911</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>188564.0679191822</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>125168.4969405391</v>
+        <v>50539.09274698332</v>
       </c>
       <c r="O2" t="n">
-        <v>51870.14181473463</v>
+        <v>37578.83834148892</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52591.23870034764</v>
+        <v>231521.2864803834</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>835392.6722396531</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>593418.6987067544</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13662.67717713547</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>42052.05093618305</v>
       </c>
       <c r="I2" t="n">
-        <v>672140.2467937882</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>456892.065111933</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>374547.722434013</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99624.36038798961</v>
+        <v>57217.76592866523</v>
       </c>
       <c r="O2" t="n">
-        <v>171391.7952270746</v>
+        <v>38942.35216959946</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[3_low_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>39063.99109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>1812.803126660054</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>483537.6274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4622.8361210227</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94331.34471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>2428.77771379855</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>10371.325902912</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.534049630441</v>
+        <v>23638.06126801545</v>
       </c>
       <c r="O2" t="n">
-        <v>2420.79197950242</v>
+        <v>19940.13531829346</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1358.894601537055</v>
+        <v>30846.52922536713</v>
       </c>
       <c r="B2" t="n">
-        <v>3025.951641828148</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1495599.874611417</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12889.56086624117</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70193.79982138964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56602.42752520426</v>
       </c>
       <c r="I2" t="n">
-        <v>19330.19497335958</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2773.846293838942</v>
+        <v>51649.16401227913</v>
       </c>
       <c r="O2" t="n">
-        <v>2340.403967713372</v>
+        <v>42574.77934331147</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1770.119671271456</v>
+        <v>242452.4252219552</v>
       </c>
       <c r="B2" t="n">
-        <v>4686.043832468928</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>943335.270081223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19385.71650516988</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1425.925979620855</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39373.98526588717</v>
       </c>
       <c r="I2" t="n">
-        <v>28665.83942972087</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5043.434707998173</v>
+        <v>53308.16490721726</v>
       </c>
       <c r="O2" t="n">
-        <v>3834.906109154087</v>
+        <v>30023.09380555204</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11578.49752443177</v>
       </c>
       <c r="O2" t="n">
-        <v>247.0922343210123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>775.978146433487</v>
+        <v>76705.58894163162</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1930.947398408091</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28147.3462746636</v>
       </c>
       <c r="O2" t="n">
-        <v>204.0473635070248</v>
+        <v>8312.661449003012</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[3_low_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>53161.39655440325</v>
+        <v>53161.39655440329</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>483549.0449340604</v>
+        <v>483549.0449340603</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>75423.10400722788</v>
+        <v>75423.10400722791</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23145.29432836288</v>
+        <v>23145.29432836289</v>
       </c>
       <c r="O2" t="n">
         <v>19940.13531829328</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65597.46000838834</v>
+        <v>65597.4600083883</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>74436.07324219157</v>
+        <v>74436.07324219155</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>50539.09274698332</v>
+        <v>50539.09274698317</v>
       </c>
       <c r="O2" t="n">
-        <v>37578.83834148892</v>
+        <v>37578.83834148893</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>231521.2864803834</v>
+        <v>231521.2864803851</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13662.67717713547</v>
+        <v>13662.67717713319</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>42052.05093618305</v>
+        <v>42052.05093618295</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>57217.76592866523</v>
+        <v>57217.76592866513</v>
       </c>
       <c r="O2" t="n">
-        <v>38942.35216959946</v>
+        <v>38942.35216959959</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3481.11133040007</v>
+        <v>3481.111330400031</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>112998.9730188</v>
       </c>
       <c r="N2" t="n">
-        <v>72668.9505637426</v>
+        <v>72668.95056374263</v>
       </c>
       <c r="O2" t="n">
         <v>69732.90075344281</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2209.181339077783</v>
+        <v>2209.181339077781</v>
       </c>
       <c r="B2" t="n">
-        <v>57019.8100017786</v>
+        <v>57019.81000177863</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>106564.8742708</v>
       </c>
       <c r="N2" t="n">
-        <v>33073.85645417624</v>
+        <v>33073.85645417616</v>
       </c>
       <c r="O2" t="n">
-        <v>22743.17640421139</v>
+        <v>22743.17640421138</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23566.89669566984</v>
+        <v>23566.89669566957</v>
       </c>
       <c r="B2" t="n">
         <v>12464.79578491448</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>158247.5988221456</v>
+        <v>158247.5988221457</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62871.57057687733</v>
+        <v>62871.57057687781</v>
       </c>
       <c r="N2" t="n">
-        <v>48867.45187110166</v>
+        <v>48867.45187110212</v>
       </c>
       <c r="O2" t="n">
-        <v>59761.20443857631</v>
+        <v>59761.2044385763</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
